--- a/data/structure_energies.xlsx
+++ b/data/structure_energies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heidiklem/Desktop/Research-projects/glutaminase-reaction/Manuscript/submission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDE2C364-5659-024F-A614-E985AFD7A2F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6607AA39-FC92-CA4C-A42C-1DD0612F1ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16440" xr2:uid="{6DF2E48D-928D-804B-BECD-83506FC91AF8}"/>
   </bookViews>
@@ -112,6 +112,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="171" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -149,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -157,6 +160,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,7 +479,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -536,13 +541,13 @@
       <c r="E6">
         <v>-5709.9319999999998</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>0</v>
       </c>
       <c r="G6">
         <v>-5713.9089999999997</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="4">
         <v>0</v>
       </c>
     </row>
@@ -562,13 +567,13 @@
       <c r="E7">
         <v>-5709.9279999999999</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <v>3.0110000000000001</v>
       </c>
       <c r="G7">
         <v>-5713.9040000000005</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="4">
         <v>3.173</v>
       </c>
     </row>
@@ -588,13 +593,13 @@
       <c r="E8">
         <v>-5709.9390000000003</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <v>-3.911</v>
       </c>
       <c r="G8">
         <v>-5713.9129999999996</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="4">
         <v>-2.8740000000000001</v>
       </c>
     </row>
@@ -614,13 +619,13 @@
       <c r="E9">
         <v>-5709.8950000000004</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="4">
         <v>23.273</v>
       </c>
       <c r="G9">
         <v>-5713.8720000000003</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="4">
         <v>23.236999999999998</v>
       </c>
     </row>
@@ -640,13 +645,13 @@
       <c r="E10">
         <v>-5709.8969999999999</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <v>22.427</v>
       </c>
       <c r="G10">
         <v>-5713.8680000000004</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="4">
         <v>25.367999999999999</v>
       </c>
     </row>
@@ -666,13 +671,13 @@
       <c r="E11">
         <v>-5709.8879999999999</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="4">
         <v>28.010999999999999</v>
       </c>
       <c r="G11">
         <v>-5713.86</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="4">
         <v>30.523</v>
       </c>
     </row>
@@ -692,13 +697,13 @@
       <c r="E12">
         <v>-5709.8969999999999</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="4">
         <v>22.021000000000001</v>
       </c>
       <c r="G12">
         <v>-5713.87</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="4">
         <v>24.594999999999999</v>
       </c>
     </row>
@@ -718,13 +723,13 @@
       <c r="E13">
         <v>-5709.8860000000004</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="4">
         <v>28.882999999999999</v>
       </c>
       <c r="G13">
         <v>-5713.866</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="4">
         <v>26.613</v>
       </c>
     </row>
@@ -744,13 +749,13 @@
       <c r="E14">
         <v>-5709.893</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="4">
         <v>24.800999999999998</v>
       </c>
       <c r="G14">
         <v>-5713.875</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="4">
         <v>21.292999999999999</v>
       </c>
     </row>
@@ -770,13 +775,13 @@
       <c r="E15">
         <v>-5709.973</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="4">
         <v>0</v>
       </c>
       <c r="G15">
         <v>-5713.9380000000001</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="4">
         <v>0</v>
       </c>
     </row>
@@ -796,13 +801,13 @@
       <c r="E16">
         <v>-5709.9470000000001</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="4">
         <v>16.088999999999999</v>
       </c>
       <c r="G16">
         <v>-5713.915</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="4">
         <v>14.532</v>
       </c>
     </row>
@@ -822,13 +827,13 @@
       <c r="E17">
         <v>-5709.9709999999995</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="4">
         <v>0.96099999999999997</v>
       </c>
       <c r="G17">
         <v>-5713.9369999999999</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="4">
         <v>0.88100000000000001</v>
       </c>
     </row>
@@ -848,13 +853,13 @@
       <c r="E18">
         <v>-5709.9480000000003</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="4">
         <v>15.882</v>
       </c>
       <c r="G18">
         <v>-5713.915</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="4">
         <v>14.494</v>
       </c>
     </row>
@@ -874,13 +879,13 @@
       <c r="E19">
         <v>-5709.9620000000004</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="4">
         <v>6.8120000000000003</v>
       </c>
       <c r="G19">
         <v>-5713.92</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="4">
         <v>11.43</v>
       </c>
     </row>
@@ -900,13 +905,13 @@
       <c r="E20">
         <v>-5709.951</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="4">
         <v>13.615</v>
       </c>
       <c r="G20">
         <v>-5713.9110000000001</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="4">
         <v>16.712</v>
       </c>
     </row>
@@ -926,13 +931,13 @@
       <c r="E21">
         <v>-5709.9539999999997</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="4">
         <v>12.052</v>
       </c>
       <c r="G21">
         <v>-5713.9160000000002</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="4">
         <v>13.763</v>
       </c>
     </row>
@@ -952,13 +957,13 @@
       <c r="E22">
         <v>-5709.9409999999998</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="4">
         <v>19.707000000000001</v>
       </c>
       <c r="G22">
         <v>-5713.9080000000004</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="4">
         <v>18.678999999999998</v>
       </c>
     </row>
@@ -978,13 +983,13 @@
       <c r="E23">
         <v>-5709.9629999999997</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="4">
         <v>5.9859999999999998</v>
       </c>
       <c r="G23">
         <v>-5713.93</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="4">
         <v>4.8159999999999998</v>
       </c>
     </row>
@@ -1004,13 +1009,13 @@
       <c r="E24">
         <v>-5709.9219999999996</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="4">
         <v>0</v>
       </c>
       <c r="G24">
         <v>-5713.9</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1027,16 +1032,16 @@
       <c r="D25" t="s">
         <v>15</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="3">
         <v>-5709.9</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="4">
         <v>14.113</v>
       </c>
       <c r="G25">
         <v>-5713.8789999999999</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="4">
         <v>12.564</v>
       </c>
     </row>
@@ -1056,13 +1061,13 @@
       <c r="E26">
         <v>-5709.8980000000001</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="4">
         <v>15.243</v>
       </c>
       <c r="G26">
         <v>-5713.8710000000001</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="4">
         <v>17.651</v>
       </c>
     </row>
@@ -1079,16 +1084,16 @@
       <c r="D27" t="s">
         <v>19</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="3">
         <v>-5709.89</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="4">
         <v>20.114000000000001</v>
       </c>
       <c r="G27">
         <v>-5713.8710000000001</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="4">
         <v>17.766999999999999</v>
       </c>
     </row>
@@ -1105,16 +1110,16 @@
       <c r="D28" t="s">
         <v>12</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="3">
         <v>-5709.96</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="4">
         <v>0</v>
       </c>
       <c r="G28">
         <v>-5713.9309999999996</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1131,17 +1136,17 @@
       <c r="D29" t="s">
         <v>15</v>
       </c>
-      <c r="E29">
-        <v>-5709.9290000000001</v>
-      </c>
-      <c r="F29">
-        <v>19.603000000000002</v>
+      <c r="E29" s="3">
+        <v>-5709.9439400000001</v>
+      </c>
+      <c r="F29" s="4">
+        <v>10.272338700000001</v>
       </c>
       <c r="G29">
-        <v>-5713.8959999999997</v>
-      </c>
-      <c r="H29">
-        <v>22.475999999999999</v>
+        <v>-5713.9138999999996</v>
+      </c>
+      <c r="H29" s="4">
+        <v>10.960717199999999</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1157,17 +1162,17 @@
       <c r="D30" t="s">
         <v>17</v>
       </c>
-      <c r="E30">
-        <v>-5709.92</v>
-      </c>
-      <c r="F30">
-        <v>25.274000000000001</v>
+      <c r="E30" s="3">
+        <v>-5709.9393369999998</v>
+      </c>
+      <c r="F30" s="4">
+        <v>13.160767229999999</v>
       </c>
       <c r="G30">
-        <v>-5713.8850000000002</v>
-      </c>
-      <c r="H30">
-        <v>29.050999999999998</v>
+        <v>-5713.9032999999999</v>
+      </c>
+      <c r="H30" s="4">
+        <v>17.579065100000001</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1183,17 +1188,17 @@
       <c r="D31" t="s">
         <v>19</v>
       </c>
-      <c r="E31">
-        <v>-5709.9120000000003</v>
-      </c>
-      <c r="F31">
-        <v>30.373999999999999</v>
+      <c r="E31" s="3">
+        <v>-5709.9216059999999</v>
+      </c>
+      <c r="F31" s="4">
+        <v>24.286999999999999</v>
       </c>
       <c r="G31">
-        <v>-5713.8869999999997</v>
-      </c>
-      <c r="H31">
-        <v>27.757999999999999</v>
+        <v>-5713.9026000000003</v>
+      </c>
+      <c r="H31" s="4">
+        <v>18.021459700000001</v>
       </c>
     </row>
   </sheetData>

--- a/data/structure_energies.xlsx
+++ b/data/structure_energies.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heidiklem/Desktop/Research-projects/glutaminase-reaction/Manuscript/submission/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heidiklem/Desktop/Graduate School/Research-projects/glutaminase-reaction/Manuscript/submission/IGPS_QM_cluster_models/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8558FB86-B48B-ED4A-B311-87F4F4AC7611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EA8356-D7D2-2A47-B93A-BC5F19793517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{6DF2E48D-928D-804B-BECD-83506FC91AF8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="51">
   <si>
     <t>Gaussian 16 Revision C.01 calculations</t>
   </si>
@@ -69,9 +69,6 @@
     <t>ES</t>
   </si>
   <si>
-    <t>TS</t>
-  </si>
-  <si>
     <t>INT1</t>
   </si>
   <si>
@@ -99,21 +96,12 @@
     <t>Inactive fGln123</t>
   </si>
   <si>
-    <t>Inactive Val51 (active Gly52)</t>
-  </si>
-  <si>
-    <t>Inactive Val51 (inactive Gly52)</t>
-  </si>
-  <si>
     <t>inactive_ES</t>
   </si>
   <si>
     <t>inactive_int1</t>
   </si>
   <si>
-    <t>inactive_TS</t>
-  </si>
-  <si>
     <t>inactive_int2</t>
   </si>
   <si>
@@ -147,9 +135,6 @@
     <t>active_int4</t>
   </si>
   <si>
-    <t>active_TS</t>
-  </si>
-  <si>
     <t>active_TS1</t>
   </si>
   <si>
@@ -162,9 +147,6 @@
     <t>inactive_fGln123_ES</t>
   </si>
   <si>
-    <t>inactive_fGln123_TS1</t>
-  </si>
-  <si>
     <t>inactive_fGln123_TS2</t>
   </si>
   <si>
@@ -174,30 +156,12 @@
     <t>inactive_Val51_ES</t>
   </si>
   <si>
-    <t>inactive_Val51_TS1</t>
-  </si>
-  <si>
     <t>inactive_Val51_TS2</t>
   </si>
   <si>
     <t>inactive_Val51_TS3</t>
   </si>
   <si>
-    <t>inactive_Val51_ES_higher_E</t>
-  </si>
-  <si>
-    <t>inactive_Val51_TS1_higher_E</t>
-  </si>
-  <si>
-    <t>inactive_Val51_TS2_higher_E</t>
-  </si>
-  <si>
-    <t>inactive_Val51_TS3_higher_E</t>
-  </si>
-  <si>
-    <t>RUNNING</t>
-  </si>
-  <si>
     <t>File base name</t>
   </si>
   <si>
@@ -205,14 +169,33 @@
   </si>
   <si>
     <t>Relative Geom opt (kcal/mol)</t>
+  </si>
+  <si>
+    <t>TS4</t>
+  </si>
+  <si>
+    <t>inactive_TS4</t>
+  </si>
+  <si>
+    <t>active_TS4</t>
+  </si>
+  <si>
+    <t>inactive_fGln123_TS4</t>
+  </si>
+  <si>
+    <t>inactive_Val51_TS4</t>
+  </si>
+  <si>
+    <t>Inactive Val51</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -251,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -264,6 +247,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693CCF54-FCB8-CF4E-91EA-62AE097108CD}">
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -649,16 +633,16 @@
         <v>7</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -687,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -703,7 +687,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>-5709.9279999999999</v>
@@ -718,7 +702,7 @@
         <v>3.173</v>
       </c>
       <c r="J7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -734,7 +718,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8">
         <v>-5709.9390000000003</v>
@@ -749,7 +733,7 @@
         <v>-2.8740000000000001</v>
       </c>
       <c r="J8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -765,7 +749,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>-5709.8950000000004</v>
@@ -781,7 +765,7 @@
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -797,7 +781,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>-5709.8969999999999</v>
@@ -812,7 +796,7 @@
         <v>25.367999999999999</v>
       </c>
       <c r="J10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -828,7 +812,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>-5709.8879999999999</v>
@@ -844,7 +828,7 @@
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -860,7 +844,7 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>-5709.8969999999999</v>
@@ -875,7 +859,7 @@
         <v>24.594999999999999</v>
       </c>
       <c r="J12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -891,7 +875,7 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E13">
         <v>-5709.8860000000004</v>
@@ -907,7 +891,7 @@
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -923,7 +907,7 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>-5709.893</v>
@@ -938,20 +922,20 @@
         <v>21.292999999999999</v>
       </c>
       <c r="J14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
@@ -969,23 +953,23 @@
         <v>0</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E16">
         <v>-5709.9470000000001</v>
@@ -1000,23 +984,23 @@
         <v>14.532</v>
       </c>
       <c r="J16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17">
         <v>-5709.9709999999995</v>
@@ -1031,23 +1015,23 @@
         <v>0.88100000000000001</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>-5709.9480000000003</v>
@@ -1063,23 +1047,23 @@
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>-5709.9620000000004</v>
@@ -1094,23 +1078,23 @@
         <v>11.43</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>-5709.951</v>
@@ -1126,23 +1110,23 @@
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21">
         <v>-5709.9539999999997</v>
@@ -1157,23 +1141,23 @@
         <v>13.763</v>
       </c>
       <c r="J21" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E22">
         <v>-5709.9409999999998</v>
@@ -1189,23 +1173,23 @@
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23">
         <v>-5709.9629999999997</v>
@@ -1220,20 +1204,20 @@
         <v>4.8159999999999998</v>
       </c>
       <c r="J23" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24" t="s">
         <v>10</v>
@@ -1251,528 +1235,256 @@
         <v>0</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25">
-        <v>-5709.9263259999998</v>
+        <v>14</v>
+      </c>
+      <c r="E25" s="3">
+        <v>-5709.9</v>
       </c>
       <c r="F25" s="4">
-        <f>(E25*627.51)-($E$24*627.51)</f>
-        <v>-2.7146082599647343</v>
-      </c>
-      <c r="H25" s="4"/>
-      <c r="J25" s="4"/>
+        <v>14.113</v>
+      </c>
+      <c r="G25">
+        <v>-5713.8789999999999</v>
+      </c>
+      <c r="H25" s="4">
+        <v>12.564</v>
+      </c>
+      <c r="J25" t="s">
+        <v>37</v>
+      </c>
       <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
         <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-5709.9</v>
+        <v>16</v>
+      </c>
+      <c r="E26">
+        <v>-5709.8980000000001</v>
       </c>
       <c r="F26" s="4">
-        <v>14.113</v>
+        <v>15.243</v>
       </c>
       <c r="G26">
-        <v>-5713.8789999999999</v>
+        <v>-5713.8710000000001</v>
       </c>
       <c r="H26" s="4">
-        <v>12.564</v>
+        <v>17.651</v>
       </c>
       <c r="J26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
         <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="E27" s="3">
-        <v>-5709.9119739999996</v>
+        <v>-5709.89</v>
       </c>
       <c r="F27" s="4">
-        <f>(E26*627.51)-(E24*627.51)</f>
-        <v>13.805219999980181</v>
-      </c>
-      <c r="H27" s="4"/>
+        <v>20.114000000000001</v>
+      </c>
+      <c r="G27">
+        <v>-5713.8710000000001</v>
+      </c>
+      <c r="H27" s="4">
+        <v>17.766999999999999</v>
+      </c>
+      <c r="J27" t="s">
+        <v>48</v>
+      </c>
       <c r="K27" s="4"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28">
-        <v>-5709.8980000000001</v>
+        <v>10</v>
+      </c>
+      <c r="E28" s="3">
+        <v>-5709.9608790000002</v>
       </c>
       <c r="F28" s="4">
-        <v>15.243</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>-5713.8710000000001</v>
+        <v>-5713.9295540000003</v>
       </c>
       <c r="H28" s="4">
-        <v>17.651</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K28" s="4"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29">
-        <v>-5709.902306</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="H29" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-5709.9439400000001</v>
+      </c>
+      <c r="F29" s="4">
+        <f>(E29*627.15)-($E$28*627.15)</f>
+        <v>10.623293850105256</v>
+      </c>
+      <c r="G29">
+        <v>-5713.9138999999996</v>
+      </c>
+      <c r="H29" s="4">
+        <f>(G29*627.15)-($G$28*627.15)</f>
+        <v>9.8174061006866395</v>
+      </c>
+      <c r="J29" t="s">
+        <v>40</v>
+      </c>
       <c r="K29" s="4"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E30" s="3">
-        <v>-5709.89</v>
+        <v>-5709.9393369999998</v>
       </c>
       <c r="F30" s="4">
-        <v>20.114000000000001</v>
+        <f t="shared" ref="F30:F35" si="0">(E30*627.15)-($E$28*627.15)</f>
+        <v>13.510065299924463</v>
       </c>
       <c r="G30">
-        <v>-5713.8710000000001</v>
+        <v>-5713.9032999999999</v>
       </c>
       <c r="H30" s="4">
-        <v>17.766999999999999</v>
+        <f t="shared" ref="H30:H35" si="1">(G30*627.15)-($G$28*627.15)</f>
+        <v>16.465196100063622</v>
       </c>
       <c r="J30" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K30" s="4"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="E31" s="3">
-        <v>-5709.911435</v>
-      </c>
-      <c r="F31" s="4"/>
-      <c r="H31" s="4"/>
+        <v>-5709.9216059999999</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="0"/>
+        <v>24.630061950068921</v>
+      </c>
+      <c r="G31">
+        <v>-5713.9026229999999</v>
+      </c>
+      <c r="H31" s="4">
+        <f>(G31*627.15)-($G$28*627.15)</f>
+        <v>16.889776650350541</v>
+      </c>
+      <c r="J31" t="s">
+        <v>49</v>
+      </c>
       <c r="K31" s="4"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-5709.9608790000002</v>
-      </c>
-      <c r="F32" s="4">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>-5713.9295540000003</v>
-      </c>
-      <c r="H32" s="4">
-        <v>0</v>
-      </c>
-      <c r="J32" t="s">
-        <v>45</v>
-      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="4"/>
+      <c r="H32" s="4"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>53</v>
-      </c>
+    <row r="33" spans="5:11" x14ac:dyDescent="0.2">
       <c r="F33" s="4"/>
       <c r="H33" s="4"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="3">
-        <v>-5709.9439400000001</v>
-      </c>
-      <c r="F34" s="4">
-        <f>(E34*627.15)-($E$32*627.15)</f>
-        <v>10.623293850105256</v>
-      </c>
-      <c r="G34">
-        <v>-5713.9138999999996</v>
-      </c>
-      <c r="H34" s="4">
-        <f>(G34*627.15)-($G$32*627.15)</f>
-        <v>9.8174061006866395</v>
-      </c>
-      <c r="J34" t="s">
-        <v>46</v>
-      </c>
+    <row r="34" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="F34" s="4"/>
+      <c r="H34" s="4"/>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-5709.9519019999998</v>
-      </c>
+    <row r="35" spans="5:11" x14ac:dyDescent="0.2">
       <c r="F35" s="4"/>
       <c r="H35" s="4"/>
       <c r="K35" s="4"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="3">
-        <v>-5709.9393369999998</v>
-      </c>
-      <c r="F36" s="4">
-        <f t="shared" ref="F36:F43" si="0">(E36*627.15)-($E$32*627.15)</f>
-        <v>13.510065299924463</v>
-      </c>
-      <c r="G36">
-        <v>-5713.9032999999999</v>
-      </c>
-      <c r="H36" s="4">
-        <f t="shared" ref="H36:H43" si="1">(G36*627.15)-($G$32*627.15)</f>
-        <v>16.465196100063622</v>
-      </c>
-      <c r="J36" t="s">
-        <v>47</v>
-      </c>
-      <c r="K36" s="4"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" s="3">
-        <v>-5709.9422720000002</v>
-      </c>
-      <c r="F37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="K37" s="4"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" s="3">
-        <v>-5709.9216059999999</v>
-      </c>
-      <c r="F38" s="4">
-        <f t="shared" si="0"/>
-        <v>24.630061950068921</v>
-      </c>
-      <c r="G38">
-        <v>-5713.9026229999999</v>
-      </c>
-      <c r="H38" s="4">
-        <f>(G38*627.15)-($G$32*627.15)</f>
-        <v>16.889776650350541</v>
-      </c>
-      <c r="J38" t="s">
-        <v>48</v>
-      </c>
-      <c r="K38" s="4"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="K39" s="4"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="3">
-        <v>-5709.9603100000004</v>
-      </c>
-      <c r="F40" s="4">
-        <f t="shared" si="0"/>
-        <v>0.35684834979474545</v>
-      </c>
-      <c r="G40">
-        <v>-5713.9295460000003</v>
-      </c>
-      <c r="H40" s="4">
-        <f t="shared" si="1"/>
-        <v>5.017200019210577E-3</v>
-      </c>
-      <c r="J40" t="s">
-        <v>49</v>
-      </c>
-      <c r="K40" s="4"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41" t="s">
-        <v>19</v>
-      </c>
-      <c r="C41" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41">
-        <v>-5709.9290000000001</v>
-      </c>
-      <c r="F41" s="4">
-        <f t="shared" si="0"/>
-        <v>19.992914849892259</v>
-      </c>
-      <c r="G41">
-        <v>-5713.8959999999997</v>
-      </c>
-      <c r="H41" s="4">
-        <f t="shared" si="1"/>
-        <v>21.043391100596637</v>
-      </c>
-      <c r="J41" t="s">
-        <v>50</v>
-      </c>
-      <c r="K41" s="4"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>22</v>
-      </c>
-      <c r="B42" t="s">
-        <v>19</v>
-      </c>
-      <c r="C42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42">
-        <v>-5709.92</v>
-      </c>
-      <c r="F42" s="4">
-        <f t="shared" si="0"/>
-        <v>25.637264850083739</v>
-      </c>
-      <c r="G42">
-        <v>-5713.8850000000002</v>
-      </c>
-      <c r="H42" s="4">
-        <f t="shared" si="1"/>
-        <v>27.942041100002825</v>
-      </c>
-      <c r="J42" t="s">
-        <v>51</v>
-      </c>
-      <c r="K42" s="4"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" t="s">
-        <v>17</v>
-      </c>
-      <c r="E43">
-        <v>-5709.9120000000003</v>
-      </c>
-      <c r="F43" s="4">
-        <f t="shared" si="0"/>
-        <v>30.654464849736542</v>
-      </c>
-      <c r="G43">
-        <v>-5713.8869999999997</v>
-      </c>
-      <c r="H43" s="4">
-        <f t="shared" si="1"/>
-        <v>26.687741100322455</v>
-      </c>
-      <c r="J43" t="s">
-        <v>52</v>
-      </c>
-      <c r="K43" s="4"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H46" s="4"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H47" s="3"/>
+    <row r="37" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="H39" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/data/structure_energies.xlsx
+++ b/data/structure_energies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heidiklem/Desktop/Graduate School/Research-projects/glutaminase-reaction/Manuscript/submission/IGPS_QM_cluster_models/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E7060E-FE11-5746-938A-FFD1DE4A2108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686B32F4-5FC8-7542-9CEE-CF460E96D528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{6DF2E48D-928D-804B-BECD-83506FC91AF8}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{6DF2E48D-928D-804B-BECD-83506FC91AF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="29">
   <si>
     <t>Gaussian 16 Revision C.01 calculations</t>
   </si>
@@ -105,28 +105,29 @@
     <t>Single pt (Hartree) BS3</t>
   </si>
   <si>
-    <t>BS1: Geometry optimization (Geom opt) calculations specifications: wb97xd/ 6-31+g(d) on S and O atoms, and 6-31g(d) on C, H and N atoms</t>
-  </si>
-  <si>
     <t>BS2: Single point (Single pt) energy calculation specifications: b3lyp/6-311+G(2d,2p) scrf=(solvent=diethylether) EmpiricalDispersion=GD3BJ</t>
   </si>
   <si>
-    <t>BS3: Single point (Single pt) energy calculation specifications: wB97X-D/def2QZVPP scrf=(solvent=diethylether) EmpiricalDispersion=GD3BJ</t>
-  </si>
-  <si>
     <t>Relative Single pt (kcal/mol) BS3</t>
   </si>
   <si>
     <t>Relative Difference (BS3-BS2)</t>
+  </si>
+  <si>
+    <t>BS3: Single point (Single pt) energy calculation specifications: wB97X-D/def2QZVPP scrf=(solvent=diethylether)</t>
+  </si>
+  <si>
+    <t>BS1: Geometry optimization (Geom opt) calculations specifications: wB97X-D/ 6-31+g(d) on S and O atoms, and 6-31g(d) on C, H and N atoms</t>
+  </si>
+  <si>
+    <t>not calculated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.0000000"/>
+  <numFmts count="1">
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
@@ -166,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -174,13 +175,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693CCF54-FCB8-CF4E-91EA-62AE097108CD}">
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -507,55 +506,55 @@
     <col min="10" max="10" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="6" spans="1:11" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -584,13 +583,13 @@
         <v>22</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -603,31 +602,31 @@
       <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="4">
         <v>-5709.9319999999998</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>0</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="4">
         <v>-5713.9089999999997</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>0</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="4">
         <v>-5712.5237260000004</v>
       </c>
-      <c r="J7" s="4">
-        <f>(I7*627.15)-(I$7*627.15)</f>
+      <c r="J7" s="3">
+        <f t="shared" ref="J7:J15" si="0">(I7*627.15)-(I$7*627.15)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="4">
-        <f>J7-H7</f>
+      <c r="K7" s="3">
+        <f t="shared" ref="K7:K24" si="1">J7-H7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -640,32 +639,31 @@
       <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="4">
         <v>-5709.9279999999999</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>3.0110000000000001</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="4">
         <v>-5713.9040000000005</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>3.173</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="4">
         <v>-5712.5178820000001</v>
       </c>
-      <c r="J8" s="4">
-        <f>(I8*627.15)-(I$7*627.15)</f>
+      <c r="J8" s="3">
+        <f t="shared" si="0"/>
         <v>3.6650646002963185</v>
       </c>
-      <c r="K8" s="4">
-        <f>J8-H8</f>
+      <c r="K8" s="3">
+        <f t="shared" si="1"/>
         <v>0.49206460029631849</v>
       </c>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -678,32 +676,31 @@
       <c r="D9" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="4">
         <v>-5709.9390000000003</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>-3.911</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="4">
         <v>-5713.9129999999996</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>-2.8740000000000001</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="4">
         <v>-5712.5279460000002</v>
       </c>
-      <c r="J9" s="4">
-        <f>(I9*627.15)-(I$7*627.15)</f>
+      <c r="J9" s="3">
+        <f t="shared" si="0"/>
         <v>-2.6465730001218617</v>
       </c>
-      <c r="K9" s="4">
-        <f>J9-H9</f>
+      <c r="K9" s="3">
+        <f t="shared" si="1"/>
         <v>0.22742699987813841</v>
       </c>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -716,32 +713,31 @@
       <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="4">
         <v>-5709.8950000000004</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>23.273</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="4">
         <v>-5713.8720000000003</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>23.236999999999998</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="4">
         <v>-5712.4811659999996</v>
       </c>
-      <c r="J10" s="4">
-        <f>(I10*627.15)-(I$7*627.15)</f>
+      <c r="J10" s="3">
+        <f t="shared" si="0"/>
         <v>26.691504000220448</v>
       </c>
-      <c r="K10" s="4">
-        <f>J10-H10</f>
+      <c r="K10" s="3">
+        <f t="shared" si="1"/>
         <v>3.4545040002204495</v>
       </c>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -754,32 +750,31 @@
       <c r="D11" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="4">
         <v>-5709.8969999999999</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>22.427</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="4">
         <v>-5713.8680000000004</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>25.367999999999999</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="4">
         <v>-5712.4808670000002</v>
       </c>
-      <c r="J11" s="4">
-        <f>(I11*627.15)-(I$7*627.15)</f>
+      <c r="J11" s="3">
+        <f t="shared" si="0"/>
         <v>26.879021849948913</v>
       </c>
-      <c r="K11" s="4">
-        <f>J11-H11</f>
+      <c r="K11" s="3">
+        <f t="shared" si="1"/>
         <v>1.5110218499489143</v>
       </c>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -792,32 +787,31 @@
       <c r="D12" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="4">
         <v>-5709.8879999999999</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>28.010999999999999</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="4">
         <v>-5713.86</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>30.523</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="4">
         <v>-5712.4717819999996</v>
       </c>
-      <c r="J12" s="4">
-        <f>(I12*627.15)-(I$7*627.15)</f>
+      <c r="J12" s="3">
+        <f t="shared" si="0"/>
         <v>32.576679600402713</v>
       </c>
-      <c r="K12" s="4">
-        <f>J12-H12</f>
+      <c r="K12" s="3">
+        <f t="shared" si="1"/>
         <v>2.0536796004027131</v>
       </c>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -830,32 +824,31 @@
       <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="4">
         <v>-5709.8969999999999</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>22.021000000000001</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="4">
         <v>-5713.87</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>24.594999999999999</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="4">
         <v>-5712.482008</v>
       </c>
-      <c r="J13" s="4">
-        <f>(I13*627.15)-(I$7*627.15)</f>
+      <c r="J13" s="3">
+        <f t="shared" si="0"/>
         <v>26.163443700410426</v>
       </c>
-      <c r="K13" s="4">
-        <f>J13-H13</f>
+      <c r="K13" s="3">
+        <f t="shared" si="1"/>
         <v>1.5684437004104268</v>
       </c>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -868,32 +861,31 @@
       <c r="D14" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="4">
         <v>-5709.8860000000004</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>28.882999999999999</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="4">
         <v>-5713.866</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>26.613</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="4">
         <v>-5712.4754679999996</v>
       </c>
-      <c r="J14" s="4">
-        <f>(I14*627.15)-(I$7*627.15)</f>
+      <c r="J14" s="3">
+        <f t="shared" si="0"/>
         <v>30.265004700515419</v>
       </c>
-      <c r="K14" s="4">
-        <f>J14-H14</f>
+      <c r="K14" s="3">
+        <f t="shared" si="1"/>
         <v>3.6520047005154197</v>
       </c>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -906,32 +898,31 @@
       <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="4">
         <v>-5709.893</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>24.800999999999998</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="4">
         <v>-5713.875</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>21.292999999999999</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="4">
         <v>-5712.4868610000003</v>
       </c>
-      <c r="J15" s="4">
-        <f>(I15*627.15)-(I$7*627.15)</f>
+      <c r="J15" s="3">
+        <f t="shared" si="0"/>
         <v>23.119884749874473</v>
       </c>
-      <c r="K15" s="4">
-        <f>J15-H15</f>
+      <c r="K15" s="3">
+        <f t="shared" si="1"/>
         <v>1.8268847498744734</v>
       </c>
-      <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -944,32 +935,31 @@
       <c r="D16" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="4">
         <v>-5709.973</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>0</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="4">
         <v>-5713.9380000000001</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <v>0</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="4">
         <v>-5712.5539710000003</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
         <f>(I16*627.15)-(I$16*627.15)</f>
         <v>0</v>
       </c>
-      <c r="K16" s="4">
-        <f>J16-H16</f>
+      <c r="K16" s="3">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -982,32 +972,31 @@
       <c r="D17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="4">
         <v>-5709.9470000000001</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>16.088999999999999</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="4">
         <v>-5713.915</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <v>14.532</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="4">
         <v>-5712.5281560000003</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <f>(I17*627.15)-(I$16*627.15)</f>
         <v>16.189877250231802</v>
       </c>
-      <c r="K17" s="4">
-        <f>J17-H17</f>
+      <c r="K17" s="3">
+        <f t="shared" si="1"/>
         <v>1.6578772502318024</v>
       </c>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1020,32 +1009,31 @@
       <c r="D18" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="4">
         <v>-5709.9709999999995</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <v>0.96099999999999997</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="4">
         <v>-5713.9369999999999</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <v>0.88100000000000001</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="4">
         <v>-5712.5494550000003</v>
       </c>
-      <c r="J18" s="4">
-        <f t="shared" ref="J18:J19" si="0">(I18*627.15)-(I$16*627.15)</f>
+      <c r="J18" s="3">
+        <f t="shared" ref="J18:J19" si="2">(I18*627.15)-(I$16*627.15)</f>
         <v>2.8322093999013305</v>
       </c>
-      <c r="K18" s="4">
-        <f>J18-H18</f>
+      <c r="K18" s="3">
+        <f t="shared" si="1"/>
         <v>1.9512093999013305</v>
       </c>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1058,32 +1046,31 @@
       <c r="D19" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="4">
         <v>-5709.9480000000003</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>15.882</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="4">
         <v>-5713.915</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <v>14.494</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="4">
         <v>-5712.524555</v>
       </c>
-      <c r="J19" s="4">
-        <f t="shared" si="0"/>
+      <c r="J19" s="3">
+        <f t="shared" si="2"/>
         <v>18.448244400322437</v>
       </c>
-      <c r="K19" s="4">
-        <f>J19-H19</f>
+      <c r="K19" s="3">
+        <f t="shared" si="1"/>
         <v>3.9542444003224375</v>
       </c>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1096,33 +1083,31 @@
       <c r="D20" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="4">
         <v>-5709.9620000000004</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>6.8120000000000003</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="4">
         <v>-5713.92</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <v>11.43</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="4">
         <v>-5712.5333989999999</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="3">
         <f>(I20*627.15)-(I$16*627.15)</f>
         <v>12.901729800272733</v>
       </c>
-      <c r="K20" s="4">
-        <f>J20-H20</f>
+      <c r="K20" s="3">
+        <f t="shared" si="1"/>
         <v>1.4717298002727333</v>
       </c>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1135,34 +1120,31 @@
       <c r="D21" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="4">
         <v>-5709.951</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>13.615</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="4">
         <v>-5713.9110000000001</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <v>16.712</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="4">
         <v>-5712.5239570000003</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="3">
         <f>(I21*627.15)-(I$16*627.15)</f>
         <v>18.823280099779367</v>
       </c>
-      <c r="K21" s="4">
-        <f>J21-H21</f>
+      <c r="K21" s="3">
+        <f t="shared" si="1"/>
         <v>2.1112800997793677</v>
       </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1175,33 +1157,31 @@
       <c r="D22" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="4">
         <v>-5709.9539999999997</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>12.052</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="4">
         <v>-5713.9160000000002</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <v>13.763</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="4">
         <v>-5712.5289110000003</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="3">
         <f>(I22*627.15)-(I$16*627.15)</f>
         <v>15.716378999873996</v>
       </c>
-      <c r="K22" s="4">
-        <f>J22-H22</f>
+      <c r="K22" s="3">
+        <f t="shared" si="1"/>
         <v>1.9533789998739959</v>
       </c>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -1214,34 +1194,31 @@
       <c r="D23" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="4">
         <v>-5709.9409999999998</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>19.707000000000001</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="4">
         <v>-5713.9080000000004</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <v>18.678999999999998</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="4">
         <v>-5712.5170580000004</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="3">
         <f>(I23*627.15)-(I$16*627.15)</f>
         <v>23.149987949989736</v>
       </c>
-      <c r="K23" s="4">
-        <f>J23-H23</f>
+      <c r="K23" s="3">
+        <f t="shared" si="1"/>
         <v>4.4709879499897376</v>
       </c>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -1254,33 +1231,31 @@
       <c r="D24" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="4">
         <v>-5709.9629999999997</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <v>5.9859999999999998</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="4">
         <v>-5713.93</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="3">
         <v>4.8159999999999998</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="4">
         <v>-5712.5427129999998</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="3">
         <f>(I24*627.15)-(I$16*627.15)</f>
         <v>7.0604547001421452</v>
       </c>
-      <c r="K24" s="4">
-        <f>J24-H24</f>
+      <c r="K24" s="3">
+        <f t="shared" si="1"/>
         <v>2.2444547001421453</v>
       </c>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1293,24 +1268,29 @@
       <c r="D25" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="4">
         <v>-5709.9219999999996</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <v>0</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="4">
         <v>-5713.9</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="3">
         <v>0</v>
       </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="N25" s="4"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1323,21 +1303,29 @@
       <c r="D26" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="4">
         <v>-5709.9</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="3">
         <v>14.113</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="4">
         <v>-5713.8789999999999</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="3">
         <v>12.564</v>
       </c>
-      <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -1350,21 +1338,29 @@
       <c r="D27" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="4">
         <v>-5709.8980000000001</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="3">
         <v>15.243</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="4">
         <v>-5713.8710000000001</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="3">
         <v>17.651</v>
       </c>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -1377,22 +1373,29 @@
       <c r="D28" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="4">
         <v>-5709.89</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="3">
         <v>20.114000000000001</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="4">
         <v>-5713.8710000000001</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="3">
         <v>17.766999999999999</v>
       </c>
-      <c r="I28" s="4"/>
-      <c r="K28" s="4"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -1405,21 +1408,29 @@
       <c r="D29" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="4">
         <v>-5709.9608790000002</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="3">
         <v>0</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="4">
         <v>-5713.9295540000003</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="3">
         <v>0</v>
       </c>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -1432,24 +1443,31 @@
       <c r="D30" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="4">
         <v>-5709.9439400000001</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="3">
         <f>(E30*627.15)-($E$29*627.15)</f>
         <v>10.623293850105256</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="4">
         <v>-5713.9138999999996</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="3">
         <f>(G30*627.15)-($G$29*627.15)</f>
         <v>9.8174061006866395</v>
       </c>
-      <c r="I30" s="4"/>
-      <c r="K30" s="4"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -1462,23 +1480,31 @@
       <c r="D31" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="4">
         <v>-5709.9393369999998</v>
       </c>
-      <c r="F31" s="4">
-        <f t="shared" ref="F31:F32" si="1">(E31*627.15)-($E$29*627.15)</f>
+      <c r="F31" s="3">
+        <f t="shared" ref="F31:F32" si="3">(E31*627.15)-($E$29*627.15)</f>
         <v>13.510065299924463</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="4">
         <v>-5713.9032999999999</v>
       </c>
-      <c r="H31" s="4">
-        <f t="shared" ref="H31" si="2">(G31*627.15)-($G$29*627.15)</f>
+      <c r="H31" s="3">
+        <f t="shared" ref="H31" si="4">(G31*627.15)-($G$29*627.15)</f>
         <v>16.465196100063622</v>
       </c>
-      <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -1491,51 +1517,29 @@
       <c r="D32" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="4">
         <v>-5709.9216059999999</v>
       </c>
-      <c r="F32" s="4">
-        <f t="shared" si="1"/>
+      <c r="F32" s="3">
+        <f t="shared" si="3"/>
         <v>24.630061950068921</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="4">
         <v>-5713.9026229999999</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="3">
         <f>(G32*627.15)-($G$29*627.15)</f>
         <v>16.889776650350541</v>
       </c>
-      <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E33" s="3"/>
-      <c r="F33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-    </row>
-    <row r="34" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="F34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="F35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="F36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-    </row>
-    <row r="38" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="H39" s="5"/>
-    </row>
-    <row r="40" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="H40" s="3"/>
+      <c r="I32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
